--- a/marketing_case.xlsx
+++ b/marketing_case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t xml:space="preserve">Локальное время покупок</t>
   </si>
@@ -79,16 +79,13 @@
     <t xml:space="preserve">Кол-во пользователей, просмотревших рекламу</t>
   </si>
   <si>
-    <t xml:space="preserve">ID Микросегмента </t>
+    <t xml:space="preserve">ID Микросегмента</t>
   </si>
   <si>
     <t xml:space="preserve">Количество просмотров рекламы</t>
   </si>
   <si>
     <t xml:space="preserve">Локальное время покупки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Код региона </t>
   </si>
   <si>
     <t xml:space="preserve">Бренд</t>
@@ -260,11 +257,11 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.56"/>
@@ -321,7 +318,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3389,8 +3386,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6446,7 +6443,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6521,13 +6518,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.06"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="2" width="12.64"/>
@@ -6595,8 +6592,8 @@
   </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6628,7 +6625,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -6640,10 +6637,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -6679,8 +6676,8 @@
   </sheetPr>
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6709,7 +6706,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -6721,10 +6718,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>

--- a/marketing_case.xlsx
+++ b/marketing_case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" state="visible" r:id="rId2"/>
@@ -257,11 +257,11 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.56"/>
@@ -6676,7 +6676,7 @@
   </sheetPr>
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
